--- a/exec/기획/UnPeu_REST_API_명세서.xlsx
+++ b/exec/기획/UnPeu_REST_API_명세서.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeong Hee Yeon\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSAFY\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6013E69D-0D6B-46A9-BFC5-607ED0B7EED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="28557" windowHeight="15563" xr2:uid="{522F4E22-0967-4A77-A81F-770F8F31901F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12348"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="110">
   <si>
     <t>Depth1(대분류)</t>
   </si>
@@ -64,27 +63,13 @@
 (보라)</t>
   </si>
   <si>
-    <t>소셜 로그인</t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
-    <t>/api/auth/login</t>
-  </si>
-  <si>
     <t>- accessToken (String)</t>
   </si>
   <si>
-    <t>사용자 정보 등록</t>
-  </si>
-  <si>
     <t>/api/users</t>
-  </si>
-  <si>
-    <t>- userTitle (String)
-- userInfo (String)
-- userImg (multi-part)</t>
   </si>
   <si>
     <t>사용자 소개 수정</t>
@@ -133,29 +118,16 @@
     <t>- userImg (multi-part)</t>
   </si>
   <si>
-    <t>조회수 추가</t>
-  </si>
-  <si>
     <t>/api/users/visit/{userId}</t>
   </si>
   <si>
     <t>- cookie</t>
   </si>
   <si>
-    <t>-userId</t>
-  </si>
-  <si>
-    <t>사용자 정보 조회</t>
-  </si>
-  <si>
     <t>GET</t>
   </si>
   <si>
     <t>/api/users/{userId}</t>
-  </si>
-  <si>
-    <t>메인페이지 관리
-(세연)</t>
   </si>
   <si>
     <t>메세지 목록 조회</t>
@@ -190,22 +162,6 @@
     <t>/api/message/messageToDiary</t>
   </si>
   <si>
-    <t>[Message 객체]
-- sender (String)
-- content (String)
-- category (String)
-- price (Integer)
-- createdAt (String)
-- presentId (long)</t>
-  </si>
-  <si>
-    <t>[Diary 객체]
-- category (String)
-- title (String)
-- content (String)
-- createdAt (String)</t>
-  </si>
-  <si>
     <t>초기화</t>
   </si>
   <si>
@@ -225,12 +181,6 @@
     <t>/api/present</t>
   </si>
   <si>
-    <t>- presentName
-- presentImg
-- presentPrice
-- userId</t>
-  </si>
-  <si>
     <t>[Present 객체]</t>
   </si>
   <si>
@@ -240,9 +190,6 @@
     <t>/api/present/{presentId}</t>
   </si>
   <si>
-    <t>- presentId</t>
-  </si>
-  <si>
     <t>선물 수정</t>
   </si>
   <si>
@@ -264,24 +211,10 @@
     <t>/api/present/message</t>
   </si>
   <si>
-    <t>[Message 객체]
-- sender
-- content
-- category
-- price
-- presentId</t>
-  </si>
-  <si>
     <t>[Message 객체]</t>
   </si>
   <si>
     <t>엿보기</t>
-  </si>
-  <si>
-    <t>/api/present/meesage/money</t>
-  </si>
-  <si>
-    <t>-totalPrice</t>
   </si>
   <si>
     <t>다이어리 관리
@@ -386,21 +319,135 @@
   </si>
   <si>
     <t>REST API 명세서</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>공통 처리:
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">공통 처리:
 - Contents Type : Json 형태로 전송
 - Access Token이 존재할경우 헤더에 항상 전송
-- ERD: ERD_Unpeu_ERD_V1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+- ERD: </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF1155CC"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ERD_Unpeu_ERD_V1</t>
+    </r>
+  </si>
+  <si>
+    <t>소셜 로그인 (구글)</t>
+  </si>
+  <si>
+    <t>/api/auth/google</t>
+  </si>
+  <si>
+    <t>소셜 로그인 (카카오)</t>
+  </si>
+  <si>
+    <t>/api/auth/kakao</t>
+  </si>
+  <si>
+    <t>유저 생일/이메일 수정</t>
+  </si>
+  <si>
+    <t>/api/users/email/birth</t>
+  </si>
+  <si>
+    <t>사용자 정보 조회
+(회원)</t>
+  </si>
+  <si>
+    <t>사용자 정보 조회
+(비회원)</t>
+  </si>
+  <si>
+    <t>유저 노래 수정</t>
+  </si>
+  <si>
+    <t>/api/users/music</t>
+  </si>
+  <si>
+    <t>- userMusic (String)</t>
+  </si>
+  <si>
+    <t>조회수 카운트</t>
+  </si>
+  <si>
+    <t>유저 컨셉 수정</t>
+  </si>
+  <si>
+    <t>/api/users/concept</t>
+  </si>
+  <si>
+    <t>- userId (Long)
+- category (String)
+- selectedDate (LocalDate)</t>
+  </si>
+  <si>
+    <t>회원 탈퇴</t>
+  </si>
+  <si>
+    <t>이벤트룸 관리
+(세연)</t>
+  </si>
+  <si>
+    <t>[Message 객체]
+- sender (String)
+- content (String)
+- category (String)
+- price (Integer)
+- createdAt (String)
+- presentId (long)
+- presentImg (String)</t>
+  </si>
+  <si>
+    <t>- presentName (String)
+- presentImg (multpartFile)
+- presentImgUrl (String)
+- presentPrice (String)
+- receivedPrice (String)
+- userId (String)</t>
+  </si>
+  <si>
+    <t>[Message 객체]
+- userId (Long)
+- sender (String)
+- content (String)
+- category (String)
+- price (int)
+- createdAt (LocalDate)
+- presentId (Long)
+- presentImg (String)</t>
+  </si>
+  <si>
+    <t>/api/present/meesage/money/{userId}</t>
+  </si>
+  <si>
+    <t>- totalPrice (String)</t>
+  </si>
+  <si>
+    <t>피드백 관리</t>
+  </si>
+  <si>
+    <t>메일 전송</t>
+  </si>
+  <si>
+    <t>/api/mail</t>
+  </si>
+  <si>
+    <t>- text (String)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -458,6 +505,21 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF1155CC"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -753,7 +815,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -844,14 +906,20 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1166,28 +1234,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B47851B-7E96-4868-884D-992C05C4FAB5}">
-  <dimension ref="A1:H33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:H3"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.75"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="19.69921875" customWidth="1"/>
+    <col min="5" max="5" width="31.69921875" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="23.19921875" customWidth="1"/>
+    <col min="8" max="8" width="21.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="18" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
@@ -1197,7 +1265,7 @@
       <c r="G1" s="19"/>
       <c r="H1" s="20"/>
     </row>
-    <row r="2" spans="1:8" ht="18.3" thickBot="1">
+    <row r="2" spans="1:8" ht="18" thickBot="1">
       <c r="A2" s="21"/>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -1207,19 +1275,19 @@
       <c r="G2" s="22"/>
       <c r="H2" s="23"/>
     </row>
-    <row r="3" spans="1:8" ht="89.75" customHeight="1" thickBot="1">
-      <c r="A3" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="32"/>
-    </row>
-    <row r="4" spans="1:8" ht="31.6" thickBot="1">
+    <row r="3" spans="1:8" ht="18" thickBot="1">
+      <c r="A3" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="34"/>
+    </row>
+    <row r="4" spans="1:8" ht="18" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1245,580 +1313,667 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="18.3" thickBot="1">
+    <row r="5" spans="1:8" ht="18" thickBot="1">
       <c r="A5" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="38.799999999999997" thickBot="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18" thickBot="1">
       <c r="A6" s="25"/>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>86</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" ht="77" thickBot="1">
+    </row>
+    <row r="7" spans="1:8" ht="79.8" thickBot="1">
       <c r="A7" s="25"/>
       <c r="B7" s="4" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>19</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G7" s="7"/>
       <c r="H7" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="77" thickBot="1">
+    <row r="8" spans="1:8" ht="79.8" thickBot="1">
       <c r="A8" s="25"/>
       <c r="B8" s="4" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="6" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>23</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="7"/>
       <c r="H8" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="77" thickBot="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="79.8" thickBot="1">
       <c r="A9" s="25"/>
       <c r="B9" s="4" t="s">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="6" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="H9" s="10" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="18.3" thickBot="1">
+    <row r="10" spans="1:8" ht="79.8" thickBot="1">
       <c r="A10" s="25"/>
       <c r="B10" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>30</v>
+        <v>14</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" ht="77" thickBot="1">
+        <v>15</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="79.8" thickBot="1">
       <c r="A11" s="25"/>
       <c r="B11" s="4" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="6" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+        <v>18</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>19</v>
+      </c>
       <c r="H11" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="79.8" thickBot="1">
+      <c r="A12" s="25"/>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="79.8" thickBot="1">
+      <c r="A13" s="25"/>
+      <c r="B13" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18" thickBot="1">
+      <c r="A14" s="25"/>
+      <c r="B14" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="77" thickBot="1">
-      <c r="A12" s="26"/>
-      <c r="B12" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="64.25" thickBot="1">
-      <c r="A13" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="64.25" thickBot="1">
-      <c r="A14" s="28"/>
-      <c r="B14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="G14" s="7"/>
-      <c r="H14" s="8" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="89.75" thickBot="1">
-      <c r="A15" s="28"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" ht="79.8" thickBot="1">
+      <c r="A15" s="25"/>
       <c r="B15" s="4" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>12</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7"/>
       <c r="G15" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="18.3" thickBot="1">
-      <c r="A16" s="29"/>
+        <v>98</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18" thickBot="1">
+      <c r="A16" s="26"/>
       <c r="B16" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="17"/>
+        <v>99</v>
+      </c>
+      <c r="C16" s="13"/>
       <c r="D16" s="14" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>12</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="16"/>
     </row>
-    <row r="17" spans="1:8" ht="51.55" thickBot="1">
+    <row r="17" spans="1:8" ht="66.599999999999994" thickBot="1">
       <c r="A17" s="27" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>51</v>
+        <v>26</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="F17" s="7"/>
-      <c r="G17" s="7" t="s">
-        <v>52</v>
-      </c>
+      <c r="G17" s="7"/>
       <c r="H17" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="18.3" thickBot="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="66.599999999999994" thickBot="1">
       <c r="A18" s="28"/>
       <c r="B18" s="4" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="6" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="11"/>
-      <c r="G18" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" spans="1:8" ht="51.55" thickBot="1">
+        <v>32</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="106.2" thickBot="1">
       <c r="A19" s="28"/>
       <c r="B19" s="4" t="s">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="6" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>10</v>
+      </c>
       <c r="G19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="18.3" thickBot="1">
-      <c r="A20" s="28"/>
-      <c r="B20" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="77" thickBot="1">
-      <c r="A21" s="28"/>
+        <v>101</v>
+      </c>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" ht="18" thickBot="1">
+      <c r="A20" s="29"/>
+      <c r="B20" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="1:8" ht="79.8" thickBot="1">
+      <c r="A21" s="27" t="s">
+        <v>39</v>
+      </c>
       <c r="B21" s="4" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="7"/>
       <c r="G21" s="7" t="s">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="18.3" thickBot="1">
-      <c r="A22" s="29"/>
-      <c r="B22" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="51.55" thickBot="1">
-      <c r="A23" s="27" t="s">
-        <v>69</v>
-      </c>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="18" thickBot="1">
+      <c r="A22" s="28"/>
+      <c r="B22" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" ht="79.8" thickBot="1">
+      <c r="A23" s="28"/>
       <c r="B23" s="4" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="6" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="G23" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="H23" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="26.05" thickBot="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="18" thickBot="1">
       <c r="A24" s="28"/>
       <c r="B24" s="4" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="C24" s="5"/>
       <c r="D24" s="6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="F24" s="11"/>
       <c r="G24" s="7"/>
       <c r="H24" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="89.75" thickBot="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="119.4" thickBot="1">
       <c r="A25" s="28"/>
       <c r="B25" s="4" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="6" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="G25" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="H25" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="51.55" thickBot="1">
-      <c r="A26" s="28"/>
-      <c r="B26" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:8" ht="18.3" thickBot="1">
-      <c r="A27" s="28"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="18" thickBot="1">
+      <c r="A26" s="29"/>
+      <c r="B26" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="53.4" thickBot="1">
+      <c r="A27" s="27" t="s">
+        <v>54</v>
+      </c>
       <c r="B27" s="4" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="6" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="F27" s="7"/>
-      <c r="G27" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="H27" s="8"/>
-    </row>
-    <row r="28" spans="1:8" ht="18.3" thickBot="1">
+      <c r="G27" s="7"/>
+      <c r="H27" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="27" thickBot="1">
       <c r="A28" s="28"/>
       <c r="B28" s="4" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="6" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="F28" s="7"/>
-      <c r="G28" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="1:8" ht="51.55" thickBot="1">
+      <c r="G28" s="7"/>
+      <c r="H28" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="93" thickBot="1">
       <c r="A29" s="28"/>
       <c r="B29" s="4" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="6" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H29" s="8"/>
-    </row>
-    <row r="30" spans="1:8" ht="18.3" thickBot="1">
+        <v>62</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="53.4" thickBot="1">
       <c r="A30" s="28"/>
       <c r="B30" s="4" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C30" s="5"/>
       <c r="D30" s="6" t="s">
-        <v>47</v>
+        <v>9</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="7"/>
+        <v>10</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>66</v>
+      </c>
       <c r="H30" s="8"/>
     </row>
-    <row r="31" spans="1:8" ht="51.55" thickBot="1">
+    <row r="31" spans="1:8" ht="18" thickBot="1">
       <c r="A31" s="28"/>
       <c r="B31" s="4" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="F31" s="7"/>
       <c r="G31" s="7" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="H31" s="8"/>
     </row>
-    <row r="32" spans="1:8" ht="51.55" thickBot="1">
+    <row r="32" spans="1:8" ht="18" thickBot="1">
       <c r="A32" s="28"/>
       <c r="B32" s="4" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="6" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="F32" s="7"/>
       <c r="G32" s="7" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="H32" s="8"/>
     </row>
-    <row r="33" spans="1:8" ht="18.3" thickBot="1">
-      <c r="A33" s="29"/>
-      <c r="B33" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="16"/>
+    <row r="33" spans="1:8" ht="53.4" thickBot="1">
+      <c r="A33" s="28"/>
+      <c r="B33" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" ht="18" thickBot="1">
+      <c r="A34" s="28"/>
+      <c r="B34" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8" ht="53.4" thickBot="1">
+      <c r="A35" s="28"/>
+      <c r="B35" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" ht="53.4" thickBot="1">
+      <c r="A36" s="28"/>
+      <c r="B36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:8" ht="18" thickBot="1">
+      <c r="A37" s="29"/>
+      <c r="B37" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="17"/>
+      <c r="D37" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="16"/>
+    </row>
+    <row r="38" spans="1:8" ht="18" thickBot="1">
+      <c r="A38" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C38" s="17"/>
+      <c r="D38" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H38" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A5:A16"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="A21:A26"/>
+    <mergeCell ref="A27:A37"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="A3:H3"/>
-    <mergeCell ref="A5:A12"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A23:A33"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>